--- a/NformTester/NformTester/Keywordscripts/600.50.30.30_TheNumberofDeviceSupportedWithoutLicense.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.50.30.30_TheNumberofDeviceSupportedWithoutLicense.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="15480" windowHeight="9570"/>
@@ -1255,12 +1255,12 @@
     <definedName name="VerifyTxtfileValues">'Form DataValDepend'!$CH$1</definedName>
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CH:$CH</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7670" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7676" uniqueCount="874">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4200,10 +4200,10 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4222,86 +4222,18 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4578,10 +4510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4709,16 +4641,18 @@
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F4" s="3">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3"/>
+      <c r="D4" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>2</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -4727,7 +4661,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:15" ht="15">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>826</v>
       </c>
@@ -4737,11 +4671,15 @@
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>849</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -4762,7 +4700,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -4780,27 +4718,27 @@
         <v>803</v>
       </c>
       <c r="B7" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>851</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="23"/>
+        <v>850</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="14"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="15">
       <c r="A8" s="2" t="s">
         <v>843</v>
       </c>
@@ -4808,25 +4746,19 @@
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>830</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>2</v>
-      </c>
+      <c r="D8" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
-      <c r="N8" s="18"/>
+      <c r="N8" s="23"/>
       <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:15">
@@ -4844,14 +4776,14 @@
         <v>19</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>852</v>
+        <v>22</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>846</v>
+        <v>2</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="26"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
@@ -4872,23 +4804,17 @@
         <v>830</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>620</v>
+        <v>19</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>625</v>
+        <v>852</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>853</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>854</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>872</v>
-      </c>
+        <v>846</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="26"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
@@ -4908,14 +4834,20 @@
         <v>620</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>855</v>
+        <v>625</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+        <v>7</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>853</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>854</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>872</v>
+      </c>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -4931,31 +4863,27 @@
         <v>11</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>856</v>
+        <v>830</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>620</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17" t="s">
-        <v>857</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>858</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>859</v>
-      </c>
+        <v>855</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
-      <c r="N12" s="24"/>
+      <c r="N12" s="18"/>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="1:15" ht="15">
+    <row r="13" spans="1:15">
       <c r="A13" s="21" t="s">
         <v>807</v>
       </c>
@@ -4963,22 +4891,32 @@
       <c r="C13" s="3">
         <v>12</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>860</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="D13" s="19" t="s">
+        <v>856</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>626</v>
+      </c>
       <c r="G13" s="17"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="H13" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>859</v>
+      </c>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
-      <c r="N13" s="18"/>
+      <c r="N13" s="24"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" ht="15">
       <c r="A14" s="21" t="s">
         <v>808</v>
       </c>
@@ -4986,19 +4924,13 @@
       <c r="C14" s="3">
         <v>13</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>830</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="17"/>
+      <c r="D14" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
@@ -5015,19 +4947,17 @@
       <c r="C15" s="3">
         <v>14</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>830</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>852</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>846</v>
-      </c>
-      <c r="H15" s="17"/>
+      <c r="D15" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
@@ -5048,23 +4978,17 @@
         <v>830</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>620</v>
+        <v>19</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>625</v>
+        <v>22</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>847</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>848</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>873</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
@@ -5083,15 +5007,15 @@
         <v>830</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>620</v>
+        <v>19</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="20"/>
+        <v>846</v>
+      </c>
+      <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
@@ -5112,17 +5036,23 @@
         <v>830</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>19</v>
+        <v>620</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>22</v>
+        <v>625</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+        <v>7</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>847</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>873</v>
+      </c>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
@@ -5141,15 +5071,15 @@
         <v>830</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>19</v>
+        <v>620</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>846</v>
-      </c>
-      <c r="H19" s="17"/>
+        <v>2</v>
+      </c>
+      <c r="H19" s="20"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
@@ -5172,23 +5102,17 @@
         <v>830</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>620</v>
+        <v>19</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>861</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>862</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>848</v>
-      </c>
-      <c r="J20" s="17" t="b">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
@@ -5207,23 +5131,17 @@
         <v>830</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>620</v>
+        <v>19</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>861</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>862</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>848</v>
-      </c>
-      <c r="J21" s="17" t="b">
-        <v>0</v>
-      </c>
+        <v>846</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
@@ -5245,35 +5163,53 @@
         <v>620</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>864</v>
+        <v>212</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>865</v>
-      </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+        <v>861</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>862</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="J22" s="17" t="b">
+        <v>0</v>
+      </c>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" s="18"/>
       <c r="O22" s="16"/>
     </row>
-    <row r="23" spans="1:15" ht="15">
+    <row r="23" spans="1:15">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="3">
         <v>22</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>866</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="D23" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>861</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>862</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="J23" s="17" t="b">
+        <v>0</v>
+      </c>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
@@ -5287,16 +5223,18 @@
         <v>23</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>867</v>
+        <v>830</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>868</v>
-      </c>
-      <c r="F24" s="17">
-        <v>2</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="20"/>
+        <v>620</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="H24" s="17"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
@@ -5310,94 +5248,84 @@
         <v>24</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>845</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="14"/>
+        <v>866</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:15" s="15" customFormat="1">
       <c r="C26" s="3">
         <v>25</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>830</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>2</v>
-      </c>
+        <v>867</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="F26" s="17">
+        <v>2</v>
+      </c>
+      <c r="G26" s="17"/>
       <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
-      <c r="N26" s="24"/>
+      <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="1:15" s="15" customFormat="1">
+    <row r="27" spans="1:15" s="15" customFormat="1" ht="15">
       <c r="C27" s="3">
         <v>26</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>869</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="24"/>
+      <c r="D27" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="14"/>
     </row>
     <row r="28" spans="1:15" s="15" customFormat="1">
       <c r="C28" s="3">
         <v>27</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>869</v>
+        <v>830</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>870</v>
+        <v>19</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>621</v>
+        <v>22</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>871</v>
-      </c>
-      <c r="I28" s="17"/>
+        <v>2</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
       <c r="N28" s="24"/>
     </row>
-    <row r="29" spans="1:15" s="15" customFormat="1" ht="14.25">
+    <row r="29" spans="1:15" s="15" customFormat="1">
       <c r="C29" s="3">
         <v>28</v>
       </c>
@@ -5405,16 +5333,16 @@
         <v>869</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>870</v>
+        <v>19</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="17"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
@@ -5428,16 +5356,18 @@
       <c r="D30" s="19" t="s">
         <v>869</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>628</v>
+      <c r="E30" s="20" t="s">
+        <v>870</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>244</v>
+        <v>621</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>871</v>
+      </c>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
@@ -5445,7 +5375,7 @@
       <c r="M30" s="17"/>
       <c r="N30" s="24"/>
     </row>
-    <row r="31" spans="1:15" s="15" customFormat="1">
+    <row r="31" spans="1:15" s="15" customFormat="1" ht="14.25">
       <c r="C31" s="3">
         <v>30</v>
       </c>
@@ -5456,22 +5386,70 @@
         <v>870</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
       <c r="N31" s="24"/>
     </row>
+    <row r="32" spans="1:15">
+      <c r="C32" s="3">
+        <v>31</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>869</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="24"/>
+    </row>
+    <row r="33" spans="3:14">
+      <c r="C33" s="3">
+        <v>32</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>869</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="24"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N31">
+  <conditionalFormatting sqref="N2:N33">
     <cfRule type="cellIs" dxfId="1" priority="33" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -5480,16 +5458,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G27 G29:G31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G31:G33 G2:G29">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4 D26 D8:D11 D14:D22 D24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28 D9:D12 D15:D24 D26 D3:D5">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E33">
       <formula1>Forms</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F33">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>
